--- a/src/assets/files/itemsTemplate.xlsx
+++ b/src/assets/files/itemsTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C0456F-EB43-4C30-9E98-B1D42D9B434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1825460-B71D-4D87-93C6-3F9CFB07C2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,12 +182,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,457 +477,461 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="14.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>234</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1111</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
+      <c r="J3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>234</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="b">
+      <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="b">
+      <c r="J4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>234</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1111</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5" t="b">
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>234</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1111</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="b">
+      <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6" t="b">
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>11111</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="b">
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
         <v>234</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>11111</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="b">
+      <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="b">
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>234</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>11111</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" t="b">
+      <c r="J9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>234</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>11111</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="b">
+      <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10" t="b">
+      <c r="J10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="nnQd2mOa2hWWyLXOZDlooPm01IzsLfp6t8+mwUtT8tTT/8k9786qwEFzd0TZZ6oHvs9nQJuspgA1J8hLyyrf2g==" saltValue="NFk4nmPyZsZSflbdcZJAvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
